--- a/salidas/Peso_variables.xlsx
+++ b/salidas/Peso_variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.283106030945995</v>
+        <v>0.2759867071254697</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2030667390914581</v>
+        <v>0.2234930287728788</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1795753490911641</v>
+        <v>0.1589392951531043</v>
       </c>
     </row>
     <row r="5">
@@ -482,17 +482,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1575628147343012</v>
+        <v>0.1338086712584511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>yearssincelastpromotion</t>
+          <t>percentsalaryhike</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1056807225806612</v>
+        <v>0.1023713659863599</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07100834355642033</v>
+        <v>0.05644422283838949</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>yearssincelastpromotion</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0489567088653466</v>
       </c>
     </row>
   </sheetData>
